--- a/8/2/PII por sector institucional 2003 a 2021 - Trimestral.xlsx
+++ b/8/2/PII por sector institucional 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4743,55 +4746,111 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>-28989</v>
+        <v>-26743</v>
       </c>
       <c r="C74">
-        <v>434993</v>
+        <v>441966</v>
       </c>
       <c r="D74">
         <v>20124</v>
       </c>
       <c r="E74">
-        <v>195731</v>
+        <v>197397</v>
       </c>
       <c r="F74">
         <v>40490</v>
       </c>
       <c r="G74">
-        <v>22157</v>
+        <v>22167</v>
       </c>
       <c r="H74">
-        <v>96131</v>
+        <v>96089</v>
       </c>
       <c r="I74">
-        <v>36953</v>
+        <v>38651</v>
       </c>
       <c r="J74">
-        <v>219137</v>
+        <v>224445</v>
       </c>
       <c r="K74">
-        <v>463981</v>
+        <v>468709</v>
       </c>
       <c r="L74">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="M74">
-        <v>75203</v>
+        <v>75224</v>
       </c>
       <c r="N74">
         <v>1502</v>
       </c>
       <c r="O74">
-        <v>52542</v>
+        <v>52570</v>
       </c>
       <c r="P74">
         <v>1289</v>
       </c>
       <c r="Q74">
-        <v>19870</v>
+        <v>19862</v>
       </c>
       <c r="R74">
-        <v>355021</v>
+        <v>359731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>-16701</v>
+      </c>
+      <c r="C75">
+        <v>454892</v>
+      </c>
+      <c r="D75">
+        <v>16477</v>
+      </c>
+      <c r="E75">
+        <v>206104</v>
+      </c>
+      <c r="F75">
+        <v>45303</v>
+      </c>
+      <c r="G75">
+        <v>25219</v>
+      </c>
+      <c r="H75">
+        <v>94556</v>
+      </c>
+      <c r="I75">
+        <v>41026</v>
+      </c>
+      <c r="J75">
+        <v>232312</v>
+      </c>
+      <c r="K75">
+        <v>471593</v>
+      </c>
+      <c r="L75">
+        <v>37860</v>
+      </c>
+      <c r="M75">
+        <v>72132</v>
+      </c>
+      <c r="N75">
+        <v>1265</v>
+      </c>
+      <c r="O75">
+        <v>49848</v>
+      </c>
+      <c r="P75">
+        <v>1258</v>
+      </c>
+      <c r="Q75">
+        <v>19760</v>
+      </c>
+      <c r="R75">
+        <v>361601</v>
       </c>
     </row>
   </sheetData>
